--- a/eval/log/Oxford_baseline_512.xlsx
+++ b/eval/log/Oxford_baseline_512.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\我的生活\实习\经历\Tencent\code\NetworkOptimization\my-deep-retrieval\eval\log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\我的生活\实习\经历\Tencent\code\NetworkOptimization\my-deep-retrieval\eval\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>处理方法</t>
   </si>
@@ -233,6 +233,10 @@
   <si>
     <t>实验5.2基础上在PCA之前先进行StandardScaler</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>queries不用roi的准确度/%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -475,6 +479,24 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -493,26 +515,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -794,56 +798,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="13" width="14.75"/>
-    <col min="14" max="14" width="14.75" customWidth="1"/>
-    <col min="15" max="15" width="14.75"/>
-    <col min="16" max="1024" width="8.625"/>
+    <col min="1" max="12" width="14.75"/>
+    <col min="13" max="16" width="18.625" customWidth="1"/>
+    <col min="17" max="1025" width="8.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
+    <row r="2" spans="1:16">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
@@ -874,12 +880,13 @@
       <c r="L2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="20"/>
-    </row>
-    <row r="3" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="M2" s="26"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="26"/>
+    </row>
+    <row r="3" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4">
@@ -905,14 +912,17 @@
         <v>81.11</v>
       </c>
       <c r="N3" s="9">
+        <v>83.95</v>
+      </c>
+      <c r="O3" s="9">
         <v>84.61</v>
       </c>
-      <c r="O3" s="10">
+      <c r="P3" s="10">
         <v>62.4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A4" s="19"/>
+    <row r="4" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A4" s="25"/>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
@@ -936,14 +946,17 @@
         <v>82.88</v>
       </c>
       <c r="N4" s="9">
+        <v>87.39</v>
+      </c>
+      <c r="O4" s="9">
         <v>85.45</v>
       </c>
-      <c r="O4" s="10">
+      <c r="P4" s="10">
         <v>192.6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A5" s="27" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="4">
@@ -969,10 +982,11 @@
         <v>76.75</v>
       </c>
       <c r="N5" s="4"/>
-      <c r="O5" s="13"/>
-    </row>
-    <row r="6" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A6" s="18"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="13"/>
+    </row>
+    <row r="6" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A6" s="24"/>
       <c r="B6" s="4">
         <v>512</v>
       </c>
@@ -996,10 +1010,11 @@
         <v>68.33</v>
       </c>
       <c r="N6" s="4"/>
-      <c r="O6" s="13"/>
-    </row>
-    <row r="7" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A7" s="18"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="13"/>
+    </row>
+    <row r="7" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A7" s="24"/>
       <c r="B7" s="4">
         <v>512</v>
       </c>
@@ -1021,10 +1036,11 @@
         <v>76.48</v>
       </c>
       <c r="N7" s="4"/>
-      <c r="O7" s="13"/>
-    </row>
-    <row r="8" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A8" s="19"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="13"/>
+    </row>
+    <row r="8" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A8" s="25"/>
       <c r="B8" s="4">
         <v>512</v>
       </c>
@@ -1046,12 +1062,13 @@
         <v>76.61</v>
       </c>
       <c r="N8" s="4"/>
-      <c r="O8" s="13">
+      <c r="O8" s="4"/>
+      <c r="P8" s="13">
         <v>65.8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A9" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="4">
@@ -1074,13 +1091,14 @@
       <c r="M9" s="9">
         <v>81.239999999999995</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="9"/>
+      <c r="O9" s="9">
         <v>84.74</v>
       </c>
-      <c r="O9" s="13"/>
-    </row>
-    <row r="10" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A10" s="18"/>
+      <c r="P9" s="13"/>
+    </row>
+    <row r="10" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A10" s="24"/>
       <c r="B10" s="4">
         <v>512</v>
       </c>
@@ -1102,10 +1120,11 @@
         <v>80.33</v>
       </c>
       <c r="N10" s="4"/>
-      <c r="O10" s="13"/>
-    </row>
-    <row r="11" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A11" s="18"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="13"/>
+    </row>
+    <row r="11" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A11" s="24"/>
       <c r="B11" s="4">
         <v>512</v>
       </c>
@@ -1126,13 +1145,14 @@
       <c r="M11" s="4">
         <v>80.989999999999995</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="4"/>
+      <c r="O11" s="4">
         <v>84.53</v>
       </c>
-      <c r="O11" s="13"/>
-    </row>
-    <row r="12" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A12" s="19"/>
+      <c r="P11" s="13"/>
+    </row>
+    <row r="12" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A12" s="25"/>
       <c r="B12" s="4">
         <v>512</v>
       </c>
@@ -1156,10 +1176,11 @@
         <v>80.98</v>
       </c>
       <c r="N12" s="4"/>
-      <c r="O12" s="13"/>
-    </row>
-    <row r="13" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A13" s="18" t="s">
+      <c r="O12" s="4"/>
+      <c r="P12" s="13"/>
+    </row>
+    <row r="13" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A13" s="24" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="4">
@@ -1182,13 +1203,14 @@
       <c r="M13" s="9">
         <v>81.62</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="10">
+      <c r="N13" s="9"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="10">
         <v>62.6</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A14" s="18"/>
+    <row r="14" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A14" s="24"/>
       <c r="B14" s="4">
         <v>512</v>
       </c>
@@ -1209,11 +1231,12 @@
       <c r="M14" s="9">
         <v>81.73</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="13"/>
-    </row>
-    <row r="15" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A15" s="19"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="13"/>
+    </row>
+    <row r="15" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A15" s="25"/>
       <c r="B15" s="4">
         <v>512</v>
       </c>
@@ -1234,18 +1257,19 @@
       <c r="M15" s="9">
         <v>81.78</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="9"/>
+      <c r="O15" s="9">
         <v>85.33</v>
       </c>
-      <c r="O15" s="10">
+      <c r="P15" s="10">
         <v>68.7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A9:A12"/>
@@ -1254,6 +1278,7 @@
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:K1"/>
+    <mergeCell ref="O1:O2"/>
     <mergeCell ref="N1:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1266,7 +1291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -1277,350 +1302,350 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="18" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="19">
         <v>81.11</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="20">
         <v>16.02</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="20" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="25"/>
-      <c r="B3" s="27">
+      <c r="A3" s="30"/>
+      <c r="B3" s="20">
         <v>1.2</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="20">
         <v>82.88</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="20" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="20">
         <v>2.1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="20">
         <v>76.75</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="25"/>
-      <c r="B5" s="27">
+      <c r="A5" s="30"/>
+      <c r="B5" s="20">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="20">
         <v>68.33</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="21">
         <v>3.1</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="21">
         <v>76.209999999999994</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="25"/>
-      <c r="B7" s="28">
+      <c r="A7" s="30"/>
+      <c r="B7" s="21">
         <v>3.2</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="21">
         <v>76.48</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="25"/>
-      <c r="B8" s="27">
+      <c r="A8" s="30"/>
+      <c r="B8" s="20">
         <v>3.3</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="20">
         <v>76.14</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="20">
         <v>15.2</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="20" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="25"/>
-      <c r="B9" s="27">
+      <c r="A9" s="30"/>
+      <c r="B9" s="20">
         <v>3.4</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="20">
         <v>76.61</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="20">
         <v>15.2</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="20" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="19">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="19">
         <v>81.239999999999995</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="20">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="20">
         <v>21.26</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="20">
         <v>15.97</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="20" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="25"/>
-      <c r="B12" s="27">
+      <c r="A12" s="30"/>
+      <c r="B12" s="20">
         <v>5.2</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="20">
         <v>57.27</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="20">
         <v>15.97</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="20" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="25"/>
-      <c r="B13" s="27">
+      <c r="A13" s="30"/>
+      <c r="B13" s="20">
         <v>5.3</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="20">
         <v>79.569999999999993</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="20">
         <v>15.97</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="20" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="25"/>
-      <c r="B14" s="27">
+      <c r="A14" s="30"/>
+      <c r="B14" s="20">
         <v>5.4</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="20">
         <v>81.62</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="20">
         <v>15.97</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="20" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="25"/>
-      <c r="B15" s="27">
+      <c r="A15" s="30"/>
+      <c r="B15" s="20">
         <v>5.5</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="20">
         <v>81.73</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26">
+      <c r="A16" s="30"/>
+      <c r="B16" s="19">
         <v>5.6</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="19">
         <v>81.78</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="20">
         <v>14.5</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="20" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="20">
         <v>6.1</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="20">
         <v>78.13</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="20">
         <v>15.92</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="20" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="25"/>
-      <c r="B18" s="27">
+      <c r="A18" s="30"/>
+      <c r="B18" s="20">
         <v>6.2</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="20">
         <v>80.33</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="25"/>
-      <c r="B19" s="27">
+      <c r="A19" s="30"/>
+      <c r="B19" s="20">
         <v>6.3</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="20">
         <v>80.989999999999995</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="20">
         <v>13.3</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="20" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="20">
         <v>7.1</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="20">
         <v>80.98</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="20">
         <v>13.2</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="20" t="s">
         <v>63</v>
       </c>
     </row>
